--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F942FA15-B217-4634-8880-0C676044E097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAFD3B7-A9E2-4033-948E-3799233DB61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4656" yWindow="8652" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -471,13 +471,13 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAFD3B7-A9E2-4033-948E-3799233DB61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9081A6AF-54BC-484F-99D8-9242B10F27FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4656" yWindow="8652" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Brief</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,34 @@
   </si>
   <si>
     <t>USER_LOGIN_KEY_CHAR_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_LOGIN_EXPIRE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int64Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录超时时间(秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_HEARTBEAT_EXPIRE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳超时时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,23 +492,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -492,8 +516,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -501,106 +531,155 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>1000</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>22</v>
       </c>
       <c r="C9">
         <v>1000</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>24</v>
       </c>
       <c r="C10">
         <v>86400</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>86400</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9081A6AF-54BC-484F-99D8-9242B10F27FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D40FDBB-E549-4DD1-AA14-F716BF685ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32460" yWindow="6552" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D40FDBB-E549-4DD1-AA14-F716BF685ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18E329-07AE-49C8-B2BF-FDD127A87BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32460" yWindow="6552" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7692" yWindow="7620" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD18E329-07AE-49C8-B2BF-FDD127A87BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B3D4C-8A43-486C-81F5-03DA65C3B63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7692" yWindow="7620" windowWidth="23040" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -631,10 +631,10 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>86400</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>86400</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B3D4C-8A43-486C-81F5-03DA65C3B63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED16495C-1E64-482E-B475-3BA479266E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -631,10 +631,10 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>86000</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>86000</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED16495C-1E64-482E-B475-3BA479266E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA86FD-FBD0-43AA-A688-5F079D7B529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,62 @@
   </si>
   <si>
     <t>心跳超时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_LOGIN_KEY_CHAR_COUNT_MAX_LEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密钥字符最大长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME_MAX_LEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字最大字符数(utf8字符数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大在借图书数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORROW_COUNT_LIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SAVE_DAYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已还订单最多保存时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVERDUE_DAYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT_LIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容最大长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST_DAY_OF_WEEK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周开始, 若是过往是从0(星期天)开始, 国内是从1(星期一)开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,16 +548,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -682,6 +738,104 @@
         <v>33</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>365</v>
+      </c>
+      <c r="D17">
+        <v>365</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>1024</v>
+      </c>
+      <c r="D19">
+        <v>1024</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BA86FD-FBD0-43AA-A688-5F079D7B529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4EC6FD-8F02-4510-B2EC-C1E6086342DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4EC6FD-8F02-4510-B2EC-C1E6086342DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E03E975-AC6E-48BF-B9A6-9946B244C626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,14 @@
   </si>
   <si>
     <t>一周开始, 若是过往是从0(星期天)开始, 国内是从1(星期一)开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_LIBRARY_NEED_INVITE_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建图书馆是否需要邀请码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -836,6 +844,20 @@
         <v>47</v>
       </c>
     </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E03E975-AC6E-48BF-B9A6-9946B244C626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F98F02-E1BF-4CD1-82EB-BDD6FEF3B8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,14 @@
   </si>
   <si>
     <t>创建图书馆是否需要邀请码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_IMAGE_SIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大图片大小2MB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -737,10 +745,10 @@
         <v>32</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="F13" t="s">
         <v>33</v>
@@ -856,6 +864,20 @@
       </c>
       <c r="F21" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>2097152</v>
+      </c>
+      <c r="D22">
+        <v>2097152</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F98F02-E1BF-4CD1-82EB-BDD6FEF3B8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF40438-F1F4-4053-AB80-77B8E676359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大图片大小2MB</t>
+    <t>最大图片大小76KB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +567,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -871,10 +871,10 @@
         <v>50</v>
       </c>
       <c r="C22">
-        <v>2097152</v>
+        <v>77824</v>
       </c>
       <c r="D22">
-        <v>2097152</v>
+        <v>77824</v>
       </c>
       <c r="F22" t="s">
         <v>51</v>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF40438-F1F4-4053-AB80-77B8E676359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1702A-BF2F-4116-8830-D624467D3759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,30 @@
   </si>
   <si>
     <t>最大图片大小76KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOK_CONTENT_LIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOK_SNAP_SHOT_MAX_LIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大9张截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图书内容最大长度10KB UTF8字符数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORDS_LIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字最多5个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -880,6 +904,48 @@
         <v>51</v>
       </c>
     </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>10240</v>
+      </c>
+      <c r="D23">
+        <v>10240</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB1702A-BF2F-4116-8830-D624467D3759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19938D5-3E45-4ACC-B25C-829237CC9997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -195,14 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OVERDUE_DAYS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逾期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONTENT_LIMIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +248,14 @@
   </si>
   <si>
     <t>关键字最多5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_BORROW_DAYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多可借天数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +591,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -836,7 +836,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -845,12 +845,12 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>1024</v>
@@ -859,12 +859,12 @@
         <v>1024</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -873,12 +873,12 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -887,12 +887,12 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>77824</v>
@@ -901,12 +901,12 @@
         <v>77824</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>10240</v>
@@ -915,12 +915,12 @@
         <v>10240</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -929,12 +929,12 @@
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19938D5-3E45-4ACC-B25C-829237CC9997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E2BC2E-4191-4EB8-991C-1C4F05225770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3336" yWindow="1932" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>最多可借天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTIFY_MAX_LIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知最多上限, 多了就移除旧的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -946,6 +954,20 @@
         <v>55</v>
       </c>
     </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>1000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E2BC2E-4191-4EB8-991C-1C4F05225770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B8157-63B3-4E6A-97F7-7DD84FECF3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3336" yWindow="1932" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -959,10 +959,10 @@
         <v>58</v>
       </c>
       <c r="C26">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D26">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B8157-63B3-4E6A-97F7-7DD84FECF3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34463062-1D8D-4B08-946E-3AE0935E12F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,14 @@
   </si>
   <si>
     <t>通知最多上限, 多了就移除旧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUTSTORE_WAIT_GOT_DAYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库带领取自动取消订单时间(单位：天)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -607,7 +615,7 @@
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,6 +974,20 @@
       </c>
       <c r="F26" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34463062-1D8D-4B08-946E-3AE0935E12F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F169C3D1-70F2-4FF1-83F7-4FB19A195CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,14 @@
   </si>
   <si>
     <t>出库带领取自动取消订单时间(单位：天)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIRM_CODE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认码时长(单位:分钟)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -990,6 +998,20 @@
         <v>61</v>
       </c>
     </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F169C3D1-70F2-4FF1-83F7-4FB19A195CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152546F0-9807-46C2-B853-E8EFFD023149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -905,10 +905,10 @@
         <v>46</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>47</v>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152546F0-9807-46C2-B853-E8EFFD023149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A5D627-257E-4D71-A801-3F6B346DA0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,15 +271,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出库带领取自动取消订单时间(单位：天)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONFIRM_CODE_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>确认码时长(单位:分钟)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库待领取自动取消订单时间(单位：天)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -995,12 +995,12 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/service/TestService/config/xlsx/公共参数.xlsx
+++ b/service/TestService/config/xlsx/公共参数.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\Development\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A5D627-257E-4D71-A801-3F6B346DA0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B774366D-9C1F-493D-83EA-968393995DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,14 @@
   </si>
   <si>
     <t>出库待领取自动取消订单时间(单位：天)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DISABLE_NO_AUTH_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用非权限的人登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,21 +620,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -643,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -663,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -683,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -691,7 +699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -699,12 +707,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -715,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -732,7 +740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -746,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -760,7 +768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -774,7 +782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>27</v>
       </c>
@@ -788,7 +796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -802,7 +810,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -816,7 +824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -830,7 +838,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -844,7 +852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>40</v>
       </c>
@@ -858,7 +866,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -872,7 +880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -886,7 +894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -900,7 +908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>46</v>
       </c>
@@ -914,7 +922,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>48</v>
       </c>
@@ -928,7 +936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>50</v>
       </c>
@@ -942,7 +950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>51</v>
       </c>
@@ -956,7 +964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -970,7 +978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>58</v>
       </c>
@@ -984,7 +992,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>60</v>
       </c>
@@ -998,7 +1006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -1010,6 +1018,20 @@
       </c>
       <c r="F28" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
